--- a/workshop/01_Saturday/01_Saturday_am/data/Afghanistan_broken.cc.xlsx
+++ b/workshop/01_Saturday/01_Saturday_am/data/Afghanistan_broken.cc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -27,15 +27,9 @@
     <t>Asia</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
     <t>continent</t>
   </si>
   <si>
@@ -43,6 +37,33 @@
   </si>
   <si>
     <t>gdpPercap</t>
+  </si>
+  <si>
+    <t>6pop</t>
+  </si>
+  <si>
+    <t>Asio</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>note to self: get more data</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>rainstorms</t>
+  </si>
+  <si>
+    <t>another note: check this population number</t>
+  </si>
+  <si>
+    <t>Afghnistan</t>
   </si>
 </sst>
 </file>
@@ -411,35 +432,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -459,12 +483,9 @@
         <v>635.34135100000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2002</v>
       </c>
       <c r="C3">
         <v>25268405</v>
@@ -479,7 +500,7 @@
         <v>726.73405479999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -499,7 +520,7 @@
         <v>974.58033839999996</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -518,8 +539,11 @@
       <c r="F5">
         <v>779.44531449999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -535,11 +559,11 @@
       <c r="E6">
         <v>30.332000000000001</v>
       </c>
-      <c r="F6">
-        <v>820.85302960000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -559,7 +583,7 @@
         <v>853.10071000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -579,7 +603,7 @@
         <v>836.19713820000004</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -592,14 +616,14 @@
       <c r="D9" t="s">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>36.088000000000001</v>
+      <c r="E9" t="s">
+        <v>8</v>
       </c>
       <c r="F9">
         <v>739.98110580000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -619,9 +643,9 @@
         <v>786.11335999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>1982</v>
@@ -638,8 +662,11 @@
       <c r="F11">
         <v>978.01143879999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -650,7 +677,7 @@
         <v>13867957</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>40.822000000000003</v>
@@ -659,7 +686,7 @@
         <v>852.39594480000005</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -677,6 +704,11 @@
       </c>
       <c r="F13">
         <v>649.34139519999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="D16" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/workshop/01_Saturday/01_Saturday_am/data/Afghanistan_broken.cc.xlsx
+++ b/workshop/01_Saturday/01_Saturday_am/data/Afghanistan_broken.cc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Afghanistan.cc.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -39,21 +39,9 @@
     <t>gdpPercap</t>
   </si>
   <si>
-    <t>6pop</t>
-  </si>
-  <si>
-    <t>Asio</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>note to self: get more data</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -63,7 +51,10 @@
     <t>another note: check this population number</t>
   </si>
   <si>
-    <t>Afghnistan</t>
+    <t>country</t>
+  </si>
+  <si>
+    <t>pop</t>
   </si>
 </sst>
 </file>
@@ -432,23 +423,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -459,11 +450,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -483,9 +474,12 @@
         <v>635.34135100000003</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
         <v>25268405</v>
@@ -500,7 +494,7 @@
         <v>726.73405479999997</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -520,7 +514,7 @@
         <v>974.58033839999996</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -539,11 +533,11 @@
       <c r="F5">
         <v>779.44531449999999</v>
       </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -560,10 +554,10 @@
         <v>30.332000000000001</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -583,7 +577,7 @@
         <v>853.10071000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -603,7 +597,7 @@
         <v>836.19713820000004</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -617,13 +611,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>739.98110580000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -643,9 +637,9 @@
         <v>786.11335999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>1982</v>
@@ -662,11 +656,11 @@
       <c r="F11">
         <v>978.01143879999995</v>
       </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -677,7 +671,7 @@
         <v>13867957</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>40.822000000000003</v>
@@ -686,7 +680,7 @@
         <v>852.39594480000005</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -704,11 +698,6 @@
       </c>
       <c r="F13">
         <v>649.34139519999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="D16" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
